--- a/data/levels.xlsx
+++ b/data/levels.xlsx
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
-    <t xml:space="preserve">word1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">word2</t>
+    <t xml:space="preserve">word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
   </si>
   <si>
     <t xml:space="preserve">score</t>
@@ -157,7 +157,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
